--- a/Assets/06.Table/SnowManAtten.xlsx
+++ b/Assets/06.Table/SnowManAtten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DAADAB-1474-466A-8833-31F6C1B2E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C49C72-76D5-40D0-A056-4B537A532B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SnowManAtten" sheetId="1" r:id="rId1"/>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F590"/>
+  <dimension ref="A1:F712"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A707" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E722" sqref="E722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13328,7 +13328,7 @@
         <v>5</v>
       </c>
       <c r="D579" s="2">
-        <f t="shared" ref="D579:F590" si="9">IF($C579=5,300000000,
+        <f t="shared" ref="D579:F594" si="9">IF($C579=5,300000000,
 IF($C579=30,15000,
 IF($C579=14,200,
 IF($C579=46,15000,
@@ -13585,6 +13585,2714 @@
       <c r="F590" s="2">
         <f t="shared" si="9"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A591" s="2">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2">
+        <v>403400000</v>
+      </c>
+      <c r="C591" s="2">
+        <v>5</v>
+      </c>
+      <c r="D591" s="2">
+        <f t="shared" si="9"/>
+        <v>300000000</v>
+      </c>
+      <c r="E591" s="2">
+        <v>5</v>
+      </c>
+      <c r="F591" s="2">
+        <f t="shared" si="9"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A592" s="2">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2">
+        <v>404200000</v>
+      </c>
+      <c r="C592" s="2">
+        <v>30</v>
+      </c>
+      <c r="D592" s="2">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+      <c r="E592" s="2">
+        <v>30</v>
+      </c>
+      <c r="F592" s="2">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A593" s="2">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2">
+        <v>405000000</v>
+      </c>
+      <c r="C593" s="2">
+        <v>14</v>
+      </c>
+      <c r="D593" s="2">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="E593" s="2">
+        <v>14</v>
+      </c>
+      <c r="F593" s="2">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A594" s="2">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2">
+        <v>405800000</v>
+      </c>
+      <c r="C594" s="2">
+        <v>46</v>
+      </c>
+      <c r="D594" s="2">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+      <c r="E594" s="2">
+        <v>46</v>
+      </c>
+      <c r="F594" s="2">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A595" s="2">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2">
+        <v>406600000</v>
+      </c>
+      <c r="C595" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D595" s="2">
+        <f t="shared" ref="D595:D658" si="10">IF($C595=5,300000000,
+IF($C595=30,15000,
+IF($C595=14,200,
+IF($C595=46,15000,
+IF($C595=9010,2000,
+IF($C595=9016,100,
+0))))))</f>
+        <v>2000</v>
+      </c>
+      <c r="E595" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F595" s="2">
+        <f t="shared" ref="F595:F658" si="11">IF($C595=5,300000000,
+IF($C595=30,15000,
+IF($C595=14,200,
+IF($C595=46,15000,
+IF($C595=9010,2000,
+IF($C595=9016,100,
+0))))))</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A596" s="2">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2">
+        <v>407400000</v>
+      </c>
+      <c r="C596" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D596" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E596" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F596" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A597" s="2">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2">
+        <v>408200000</v>
+      </c>
+      <c r="C597" s="2">
+        <v>5</v>
+      </c>
+      <c r="D597" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E597" s="2">
+        <v>5</v>
+      </c>
+      <c r="F597" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A598" s="2">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2">
+        <v>409000000</v>
+      </c>
+      <c r="C598" s="2">
+        <v>30</v>
+      </c>
+      <c r="D598" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E598" s="2">
+        <v>30</v>
+      </c>
+      <c r="F598" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A599" s="2">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2">
+        <v>409800000</v>
+      </c>
+      <c r="C599" s="2">
+        <v>14</v>
+      </c>
+      <c r="D599" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E599" s="2">
+        <v>14</v>
+      </c>
+      <c r="F599" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A600" s="2">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2">
+        <v>410600000</v>
+      </c>
+      <c r="C600" s="2">
+        <v>46</v>
+      </c>
+      <c r="D600" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E600" s="2">
+        <v>46</v>
+      </c>
+      <c r="F600" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A601" s="2">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2">
+        <v>411400000</v>
+      </c>
+      <c r="C601" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D601" s="2">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="E601" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F601" s="2">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A602" s="2">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2">
+        <v>412200000</v>
+      </c>
+      <c r="C602" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D602" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E602" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F602" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A603" s="2">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2">
+        <v>413000000</v>
+      </c>
+      <c r="C603" s="2">
+        <v>5</v>
+      </c>
+      <c r="D603" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E603" s="2">
+        <v>5</v>
+      </c>
+      <c r="F603" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A604" s="2">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2">
+        <v>413800000</v>
+      </c>
+      <c r="C604" s="2">
+        <v>30</v>
+      </c>
+      <c r="D604" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E604" s="2">
+        <v>30</v>
+      </c>
+      <c r="F604" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A605" s="2">
+        <v>603</v>
+      </c>
+      <c r="B605" s="2">
+        <v>414600000</v>
+      </c>
+      <c r="C605" s="2">
+        <v>14</v>
+      </c>
+      <c r="D605" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E605" s="2">
+        <v>14</v>
+      </c>
+      <c r="F605" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A606" s="2">
+        <v>604</v>
+      </c>
+      <c r="B606" s="2">
+        <v>415400000</v>
+      </c>
+      <c r="C606" s="2">
+        <v>46</v>
+      </c>
+      <c r="D606" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E606" s="2">
+        <v>46</v>
+      </c>
+      <c r="F606" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A607" s="2">
+        <v>605</v>
+      </c>
+      <c r="B607" s="2">
+        <v>416200000</v>
+      </c>
+      <c r="C607" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D607" s="2">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="E607" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F607" s="2">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A608" s="2">
+        <v>606</v>
+      </c>
+      <c r="B608" s="2">
+        <v>417000000</v>
+      </c>
+      <c r="C608" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D608" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E608" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F608" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A609" s="2">
+        <v>607</v>
+      </c>
+      <c r="B609" s="2">
+        <v>417800000</v>
+      </c>
+      <c r="C609" s="2">
+        <v>5</v>
+      </c>
+      <c r="D609" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E609" s="2">
+        <v>5</v>
+      </c>
+      <c r="F609" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A610" s="2">
+        <v>608</v>
+      </c>
+      <c r="B610" s="2">
+        <v>418600000</v>
+      </c>
+      <c r="C610" s="2">
+        <v>30</v>
+      </c>
+      <c r="D610" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E610" s="2">
+        <v>30</v>
+      </c>
+      <c r="F610" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A611" s="2">
+        <v>609</v>
+      </c>
+      <c r="B611" s="2">
+        <v>419400000</v>
+      </c>
+      <c r="C611" s="2">
+        <v>14</v>
+      </c>
+      <c r="D611" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E611" s="2">
+        <v>14</v>
+      </c>
+      <c r="F611" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A612" s="2">
+        <v>610</v>
+      </c>
+      <c r="B612" s="2">
+        <v>420200000</v>
+      </c>
+      <c r="C612" s="2">
+        <v>46</v>
+      </c>
+      <c r="D612" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E612" s="2">
+        <v>46</v>
+      </c>
+      <c r="F612" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A613" s="2">
+        <v>611</v>
+      </c>
+      <c r="B613" s="2">
+        <v>421000000</v>
+      </c>
+      <c r="C613" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D613" s="2">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="E613" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F613" s="2">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A614" s="2">
+        <v>612</v>
+      </c>
+      <c r="B614" s="2">
+        <v>421800000</v>
+      </c>
+      <c r="C614" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D614" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E614" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F614" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A615" s="2">
+        <v>613</v>
+      </c>
+      <c r="B615" s="2">
+        <v>422600000</v>
+      </c>
+      <c r="C615" s="2">
+        <v>5</v>
+      </c>
+      <c r="D615" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E615" s="2">
+        <v>5</v>
+      </c>
+      <c r="F615" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A616" s="2">
+        <v>614</v>
+      </c>
+      <c r="B616" s="2">
+        <v>423400000</v>
+      </c>
+      <c r="C616" s="2">
+        <v>30</v>
+      </c>
+      <c r="D616" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E616" s="2">
+        <v>30</v>
+      </c>
+      <c r="F616" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A617" s="2">
+        <v>615</v>
+      </c>
+      <c r="B617" s="2">
+        <v>424200000</v>
+      </c>
+      <c r="C617" s="2">
+        <v>14</v>
+      </c>
+      <c r="D617" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E617" s="2">
+        <v>14</v>
+      </c>
+      <c r="F617" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A618" s="2">
+        <v>616</v>
+      </c>
+      <c r="B618" s="2">
+        <v>425000000</v>
+      </c>
+      <c r="C618" s="2">
+        <v>46</v>
+      </c>
+      <c r="D618" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E618" s="2">
+        <v>46</v>
+      </c>
+      <c r="F618" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A619" s="2">
+        <v>617</v>
+      </c>
+      <c r="B619" s="2">
+        <v>425800000</v>
+      </c>
+      <c r="C619" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D619" s="2">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="E619" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F619" s="2">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A620" s="2">
+        <v>618</v>
+      </c>
+      <c r="B620" s="2">
+        <v>426600000</v>
+      </c>
+      <c r="C620" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D620" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E620" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F620" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A621" s="2">
+        <v>619</v>
+      </c>
+      <c r="B621" s="2">
+        <v>427400000</v>
+      </c>
+      <c r="C621" s="2">
+        <v>5</v>
+      </c>
+      <c r="D621" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E621" s="2">
+        <v>5</v>
+      </c>
+      <c r="F621" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A622" s="2">
+        <v>620</v>
+      </c>
+      <c r="B622" s="2">
+        <v>428200000</v>
+      </c>
+      <c r="C622" s="2">
+        <v>30</v>
+      </c>
+      <c r="D622" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E622" s="2">
+        <v>30</v>
+      </c>
+      <c r="F622" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A623" s="2">
+        <v>621</v>
+      </c>
+      <c r="B623" s="2">
+        <v>429000000</v>
+      </c>
+      <c r="C623" s="2">
+        <v>14</v>
+      </c>
+      <c r="D623" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E623" s="2">
+        <v>14</v>
+      </c>
+      <c r="F623" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A624" s="2">
+        <v>622</v>
+      </c>
+      <c r="B624" s="2">
+        <v>429800000</v>
+      </c>
+      <c r="C624" s="2">
+        <v>46</v>
+      </c>
+      <c r="D624" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E624" s="2">
+        <v>46</v>
+      </c>
+      <c r="F624" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A625" s="2">
+        <v>623</v>
+      </c>
+      <c r="B625" s="2">
+        <v>430600000</v>
+      </c>
+      <c r="C625" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D625" s="2">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="E625" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F625" s="2">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A626" s="2">
+        <v>624</v>
+      </c>
+      <c r="B626" s="2">
+        <v>431400000</v>
+      </c>
+      <c r="C626" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D626" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E626" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F626" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A627" s="2">
+        <v>625</v>
+      </c>
+      <c r="B627" s="2">
+        <v>432200000</v>
+      </c>
+      <c r="C627" s="2">
+        <v>5</v>
+      </c>
+      <c r="D627" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E627" s="2">
+        <v>5</v>
+      </c>
+      <c r="F627" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A628" s="2">
+        <v>626</v>
+      </c>
+      <c r="B628" s="2">
+        <v>433000000</v>
+      </c>
+      <c r="C628" s="2">
+        <v>30</v>
+      </c>
+      <c r="D628" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E628" s="2">
+        <v>30</v>
+      </c>
+      <c r="F628" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A629" s="2">
+        <v>627</v>
+      </c>
+      <c r="B629" s="2">
+        <v>433800000</v>
+      </c>
+      <c r="C629" s="2">
+        <v>14</v>
+      </c>
+      <c r="D629" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E629" s="2">
+        <v>14</v>
+      </c>
+      <c r="F629" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A630" s="2">
+        <v>628</v>
+      </c>
+      <c r="B630" s="2">
+        <v>434600000</v>
+      </c>
+      <c r="C630" s="2">
+        <v>46</v>
+      </c>
+      <c r="D630" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E630" s="2">
+        <v>46</v>
+      </c>
+      <c r="F630" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A631" s="2">
+        <v>629</v>
+      </c>
+      <c r="B631" s="2">
+        <v>435400000</v>
+      </c>
+      <c r="C631" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D631" s="2">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="E631" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F631" s="2">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A632" s="2">
+        <v>630</v>
+      </c>
+      <c r="B632" s="2">
+        <v>436200000</v>
+      </c>
+      <c r="C632" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D632" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E632" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F632" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A633" s="2">
+        <v>631</v>
+      </c>
+      <c r="B633" s="2">
+        <v>437000000</v>
+      </c>
+      <c r="C633" s="2">
+        <v>5</v>
+      </c>
+      <c r="D633" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E633" s="2">
+        <v>5</v>
+      </c>
+      <c r="F633" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A634" s="2">
+        <v>632</v>
+      </c>
+      <c r="B634" s="2">
+        <v>437800000</v>
+      </c>
+      <c r="C634" s="2">
+        <v>30</v>
+      </c>
+      <c r="D634" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E634" s="2">
+        <v>30</v>
+      </c>
+      <c r="F634" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A635" s="2">
+        <v>633</v>
+      </c>
+      <c r="B635" s="2">
+        <v>438600000</v>
+      </c>
+      <c r="C635" s="2">
+        <v>14</v>
+      </c>
+      <c r="D635" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E635" s="2">
+        <v>14</v>
+      </c>
+      <c r="F635" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A636" s="2">
+        <v>634</v>
+      </c>
+      <c r="B636" s="2">
+        <v>439400000</v>
+      </c>
+      <c r="C636" s="2">
+        <v>46</v>
+      </c>
+      <c r="D636" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E636" s="2">
+        <v>46</v>
+      </c>
+      <c r="F636" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A637" s="2">
+        <v>635</v>
+      </c>
+      <c r="B637" s="2">
+        <v>440200000</v>
+      </c>
+      <c r="C637" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D637" s="2">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="E637" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F637" s="2">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A638" s="2">
+        <v>636</v>
+      </c>
+      <c r="B638" s="2">
+        <v>441000000</v>
+      </c>
+      <c r="C638" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D638" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E638" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F638" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A639" s="2">
+        <v>637</v>
+      </c>
+      <c r="B639" s="2">
+        <v>441800000</v>
+      </c>
+      <c r="C639" s="2">
+        <v>5</v>
+      </c>
+      <c r="D639" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E639" s="2">
+        <v>5</v>
+      </c>
+      <c r="F639" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A640" s="2">
+        <v>638</v>
+      </c>
+      <c r="B640" s="2">
+        <v>442600000</v>
+      </c>
+      <c r="C640" s="2">
+        <v>30</v>
+      </c>
+      <c r="D640" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E640" s="2">
+        <v>30</v>
+      </c>
+      <c r="F640" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A641" s="2">
+        <v>639</v>
+      </c>
+      <c r="B641" s="2">
+        <v>443400000</v>
+      </c>
+      <c r="C641" s="2">
+        <v>14</v>
+      </c>
+      <c r="D641" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E641" s="2">
+        <v>14</v>
+      </c>
+      <c r="F641" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A642" s="2">
+        <v>640</v>
+      </c>
+      <c r="B642" s="2">
+        <v>444200000</v>
+      </c>
+      <c r="C642" s="2">
+        <v>46</v>
+      </c>
+      <c r="D642" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E642" s="2">
+        <v>46</v>
+      </c>
+      <c r="F642" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A643" s="2">
+        <v>641</v>
+      </c>
+      <c r="B643" s="2">
+        <v>445000000</v>
+      </c>
+      <c r="C643" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D643" s="2">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="E643" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F643" s="2">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A644" s="2">
+        <v>642</v>
+      </c>
+      <c r="B644" s="2">
+        <v>445800000</v>
+      </c>
+      <c r="C644" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D644" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E644" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F644" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A645" s="2">
+        <v>643</v>
+      </c>
+      <c r="B645" s="2">
+        <v>446600000</v>
+      </c>
+      <c r="C645" s="2">
+        <v>5</v>
+      </c>
+      <c r="D645" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E645" s="2">
+        <v>5</v>
+      </c>
+      <c r="F645" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A646" s="2">
+        <v>644</v>
+      </c>
+      <c r="B646" s="2">
+        <v>447400000</v>
+      </c>
+      <c r="C646" s="2">
+        <v>30</v>
+      </c>
+      <c r="D646" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E646" s="2">
+        <v>30</v>
+      </c>
+      <c r="F646" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A647" s="2">
+        <v>645</v>
+      </c>
+      <c r="B647" s="2">
+        <v>448200000</v>
+      </c>
+      <c r="C647" s="2">
+        <v>14</v>
+      </c>
+      <c r="D647" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E647" s="2">
+        <v>14</v>
+      </c>
+      <c r="F647" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A648" s="2">
+        <v>646</v>
+      </c>
+      <c r="B648" s="2">
+        <v>449000000</v>
+      </c>
+      <c r="C648" s="2">
+        <v>46</v>
+      </c>
+      <c r="D648" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E648" s="2">
+        <v>46</v>
+      </c>
+      <c r="F648" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A649" s="2">
+        <v>647</v>
+      </c>
+      <c r="B649" s="2">
+        <v>449800000</v>
+      </c>
+      <c r="C649" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D649" s="2">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="E649" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F649" s="2">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A650" s="2">
+        <v>648</v>
+      </c>
+      <c r="B650" s="2">
+        <v>450600000</v>
+      </c>
+      <c r="C650" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D650" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E650" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F650" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A651" s="2">
+        <v>649</v>
+      </c>
+      <c r="B651" s="2">
+        <v>451400000</v>
+      </c>
+      <c r="C651" s="2">
+        <v>5</v>
+      </c>
+      <c r="D651" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E651" s="2">
+        <v>5</v>
+      </c>
+      <c r="F651" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A652" s="2">
+        <v>650</v>
+      </c>
+      <c r="B652" s="2">
+        <v>452200000</v>
+      </c>
+      <c r="C652" s="2">
+        <v>30</v>
+      </c>
+      <c r="D652" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E652" s="2">
+        <v>30</v>
+      </c>
+      <c r="F652" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A653" s="2">
+        <v>651</v>
+      </c>
+      <c r="B653" s="2">
+        <v>453000000</v>
+      </c>
+      <c r="C653" s="2">
+        <v>14</v>
+      </c>
+      <c r="D653" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E653" s="2">
+        <v>14</v>
+      </c>
+      <c r="F653" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A654" s="2">
+        <v>652</v>
+      </c>
+      <c r="B654" s="2">
+        <v>453800000</v>
+      </c>
+      <c r="C654" s="2">
+        <v>46</v>
+      </c>
+      <c r="D654" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E654" s="2">
+        <v>46</v>
+      </c>
+      <c r="F654" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A655" s="2">
+        <v>653</v>
+      </c>
+      <c r="B655" s="2">
+        <v>454600000</v>
+      </c>
+      <c r="C655" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D655" s="2">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="E655" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F655" s="2">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A656" s="2">
+        <v>654</v>
+      </c>
+      <c r="B656" s="2">
+        <v>455400000</v>
+      </c>
+      <c r="C656" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D656" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E656" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F656" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A657" s="2">
+        <v>655</v>
+      </c>
+      <c r="B657" s="2">
+        <v>456200000</v>
+      </c>
+      <c r="C657" s="2">
+        <v>5</v>
+      </c>
+      <c r="D657" s="2">
+        <f t="shared" si="10"/>
+        <v>300000000</v>
+      </c>
+      <c r="E657" s="2">
+        <v>5</v>
+      </c>
+      <c r="F657" s="2">
+        <f t="shared" si="11"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A658" s="2">
+        <v>656</v>
+      </c>
+      <c r="B658" s="2">
+        <v>457000000</v>
+      </c>
+      <c r="C658" s="2">
+        <v>30</v>
+      </c>
+      <c r="D658" s="2">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="E658" s="2">
+        <v>30</v>
+      </c>
+      <c r="F658" s="2">
+        <f t="shared" si="11"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A659" s="2">
+        <v>657</v>
+      </c>
+      <c r="B659" s="2">
+        <v>457800000</v>
+      </c>
+      <c r="C659" s="2">
+        <v>14</v>
+      </c>
+      <c r="D659" s="2">
+        <f t="shared" ref="D659:D712" si="12">IF($C659=5,300000000,
+IF($C659=30,15000,
+IF($C659=14,200,
+IF($C659=46,15000,
+IF($C659=9010,2000,
+IF($C659=9016,100,
+0))))))</f>
+        <v>200</v>
+      </c>
+      <c r="E659" s="2">
+        <v>14</v>
+      </c>
+      <c r="F659" s="2">
+        <f t="shared" ref="F659:F712" si="13">IF($C659=5,300000000,
+IF($C659=30,15000,
+IF($C659=14,200,
+IF($C659=46,15000,
+IF($C659=9010,2000,
+IF($C659=9016,100,
+0))))))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A660" s="2">
+        <v>658</v>
+      </c>
+      <c r="B660" s="2">
+        <v>458600000</v>
+      </c>
+      <c r="C660" s="2">
+        <v>46</v>
+      </c>
+      <c r="D660" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E660" s="2">
+        <v>46</v>
+      </c>
+      <c r="F660" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A661" s="2">
+        <v>659</v>
+      </c>
+      <c r="B661" s="2">
+        <v>459400000</v>
+      </c>
+      <c r="C661" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D661" s="2">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="E661" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F661" s="2">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A662" s="2">
+        <v>660</v>
+      </c>
+      <c r="B662" s="2">
+        <v>460200000</v>
+      </c>
+      <c r="C662" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D662" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E662" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F662" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A663" s="2">
+        <v>661</v>
+      </c>
+      <c r="B663" s="2">
+        <v>461000000</v>
+      </c>
+      <c r="C663" s="2">
+        <v>5</v>
+      </c>
+      <c r="D663" s="2">
+        <f t="shared" si="12"/>
+        <v>300000000</v>
+      </c>
+      <c r="E663" s="2">
+        <v>5</v>
+      </c>
+      <c r="F663" s="2">
+        <f t="shared" si="13"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A664" s="2">
+        <v>662</v>
+      </c>
+      <c r="B664" s="2">
+        <v>461800000</v>
+      </c>
+      <c r="C664" s="2">
+        <v>30</v>
+      </c>
+      <c r="D664" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E664" s="2">
+        <v>30</v>
+      </c>
+      <c r="F664" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A665" s="2">
+        <v>663</v>
+      </c>
+      <c r="B665" s="2">
+        <v>462600000</v>
+      </c>
+      <c r="C665" s="2">
+        <v>14</v>
+      </c>
+      <c r="D665" s="2">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E665" s="2">
+        <v>14</v>
+      </c>
+      <c r="F665" s="2">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A666" s="2">
+        <v>664</v>
+      </c>
+      <c r="B666" s="2">
+        <v>463400000</v>
+      </c>
+      <c r="C666" s="2">
+        <v>46</v>
+      </c>
+      <c r="D666" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E666" s="2">
+        <v>46</v>
+      </c>
+      <c r="F666" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A667" s="2">
+        <v>665</v>
+      </c>
+      <c r="B667" s="2">
+        <v>464200000</v>
+      </c>
+      <c r="C667" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D667" s="2">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="E667" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F667" s="2">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A668" s="2">
+        <v>666</v>
+      </c>
+      <c r="B668" s="2">
+        <v>465000000</v>
+      </c>
+      <c r="C668" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D668" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E668" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F668" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A669" s="2">
+        <v>667</v>
+      </c>
+      <c r="B669" s="2">
+        <v>465800000</v>
+      </c>
+      <c r="C669" s="2">
+        <v>5</v>
+      </c>
+      <c r="D669" s="2">
+        <f t="shared" si="12"/>
+        <v>300000000</v>
+      </c>
+      <c r="E669" s="2">
+        <v>5</v>
+      </c>
+      <c r="F669" s="2">
+        <f t="shared" si="13"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A670" s="2">
+        <v>668</v>
+      </c>
+      <c r="B670" s="2">
+        <v>466600000</v>
+      </c>
+      <c r="C670" s="2">
+        <v>30</v>
+      </c>
+      <c r="D670" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E670" s="2">
+        <v>30</v>
+      </c>
+      <c r="F670" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A671" s="2">
+        <v>669</v>
+      </c>
+      <c r="B671" s="2">
+        <v>467400000</v>
+      </c>
+      <c r="C671" s="2">
+        <v>14</v>
+      </c>
+      <c r="D671" s="2">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E671" s="2">
+        <v>14</v>
+      </c>
+      <c r="F671" s="2">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A672" s="2">
+        <v>670</v>
+      </c>
+      <c r="B672" s="2">
+        <v>468200000</v>
+      </c>
+      <c r="C672" s="2">
+        <v>46</v>
+      </c>
+      <c r="D672" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E672" s="2">
+        <v>46</v>
+      </c>
+      <c r="F672" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A673" s="2">
+        <v>671</v>
+      </c>
+      <c r="B673" s="2">
+        <v>469000000</v>
+      </c>
+      <c r="C673" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D673" s="2">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="E673" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F673" s="2">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A674" s="2">
+        <v>672</v>
+      </c>
+      <c r="B674" s="2">
+        <v>469800000</v>
+      </c>
+      <c r="C674" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D674" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E674" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F674" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A675" s="2">
+        <v>673</v>
+      </c>
+      <c r="B675" s="2">
+        <v>470600000</v>
+      </c>
+      <c r="C675" s="2">
+        <v>5</v>
+      </c>
+      <c r="D675" s="2">
+        <f t="shared" si="12"/>
+        <v>300000000</v>
+      </c>
+      <c r="E675" s="2">
+        <v>5</v>
+      </c>
+      <c r="F675" s="2">
+        <f t="shared" si="13"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A676" s="2">
+        <v>674</v>
+      </c>
+      <c r="B676" s="2">
+        <v>471400000</v>
+      </c>
+      <c r="C676" s="2">
+        <v>30</v>
+      </c>
+      <c r="D676" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E676" s="2">
+        <v>30</v>
+      </c>
+      <c r="F676" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A677" s="2">
+        <v>675</v>
+      </c>
+      <c r="B677" s="2">
+        <v>472200000</v>
+      </c>
+      <c r="C677" s="2">
+        <v>14</v>
+      </c>
+      <c r="D677" s="2">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E677" s="2">
+        <v>14</v>
+      </c>
+      <c r="F677" s="2">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A678" s="2">
+        <v>676</v>
+      </c>
+      <c r="B678" s="2">
+        <v>473000000</v>
+      </c>
+      <c r="C678" s="2">
+        <v>46</v>
+      </c>
+      <c r="D678" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E678" s="2">
+        <v>46</v>
+      </c>
+      <c r="F678" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A679" s="2">
+        <v>677</v>
+      </c>
+      <c r="B679" s="2">
+        <v>473800000</v>
+      </c>
+      <c r="C679" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D679" s="2">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="E679" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F679" s="2">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A680" s="2">
+        <v>678</v>
+      </c>
+      <c r="B680" s="2">
+        <v>474600000</v>
+      </c>
+      <c r="C680" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D680" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E680" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F680" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A681" s="2">
+        <v>679</v>
+      </c>
+      <c r="B681" s="2">
+        <v>475400000</v>
+      </c>
+      <c r="C681" s="2">
+        <v>5</v>
+      </c>
+      <c r="D681" s="2">
+        <f t="shared" si="12"/>
+        <v>300000000</v>
+      </c>
+      <c r="E681" s="2">
+        <v>5</v>
+      </c>
+      <c r="F681" s="2">
+        <f t="shared" si="13"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A682" s="2">
+        <v>680</v>
+      </c>
+      <c r="B682" s="2">
+        <v>476200000</v>
+      </c>
+      <c r="C682" s="2">
+        <v>30</v>
+      </c>
+      <c r="D682" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E682" s="2">
+        <v>30</v>
+      </c>
+      <c r="F682" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A683" s="2">
+        <v>681</v>
+      </c>
+      <c r="B683" s="2">
+        <v>477000000</v>
+      </c>
+      <c r="C683" s="2">
+        <v>14</v>
+      </c>
+      <c r="D683" s="2">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E683" s="2">
+        <v>14</v>
+      </c>
+      <c r="F683" s="2">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A684" s="2">
+        <v>682</v>
+      </c>
+      <c r="B684" s="2">
+        <v>477800000</v>
+      </c>
+      <c r="C684" s="2">
+        <v>46</v>
+      </c>
+      <c r="D684" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E684" s="2">
+        <v>46</v>
+      </c>
+      <c r="F684" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A685" s="2">
+        <v>683</v>
+      </c>
+      <c r="B685" s="2">
+        <v>478600000</v>
+      </c>
+      <c r="C685" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D685" s="2">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="E685" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F685" s="2">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A686" s="2">
+        <v>684</v>
+      </c>
+      <c r="B686" s="2">
+        <v>479400000</v>
+      </c>
+      <c r="C686" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D686" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E686" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F686" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A687" s="2">
+        <v>685</v>
+      </c>
+      <c r="B687" s="2">
+        <v>480200000</v>
+      </c>
+      <c r="C687" s="2">
+        <v>5</v>
+      </c>
+      <c r="D687" s="2">
+        <f t="shared" si="12"/>
+        <v>300000000</v>
+      </c>
+      <c r="E687" s="2">
+        <v>5</v>
+      </c>
+      <c r="F687" s="2">
+        <f t="shared" si="13"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A688" s="2">
+        <v>686</v>
+      </c>
+      <c r="B688" s="2">
+        <v>481000000</v>
+      </c>
+      <c r="C688" s="2">
+        <v>30</v>
+      </c>
+      <c r="D688" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E688" s="2">
+        <v>30</v>
+      </c>
+      <c r="F688" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A689" s="2">
+        <v>687</v>
+      </c>
+      <c r="B689" s="2">
+        <v>481800000</v>
+      </c>
+      <c r="C689" s="2">
+        <v>14</v>
+      </c>
+      <c r="D689" s="2">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E689" s="2">
+        <v>14</v>
+      </c>
+      <c r="F689" s="2">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A690" s="2">
+        <v>688</v>
+      </c>
+      <c r="B690" s="2">
+        <v>482600000</v>
+      </c>
+      <c r="C690" s="2">
+        <v>46</v>
+      </c>
+      <c r="D690" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E690" s="2">
+        <v>46</v>
+      </c>
+      <c r="F690" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A691" s="2">
+        <v>689</v>
+      </c>
+      <c r="B691" s="2">
+        <v>483400000</v>
+      </c>
+      <c r="C691" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D691" s="2">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="E691" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F691" s="2">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A692" s="2">
+        <v>690</v>
+      </c>
+      <c r="B692" s="2">
+        <v>484200000</v>
+      </c>
+      <c r="C692" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D692" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E692" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F692" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A693" s="2">
+        <v>691</v>
+      </c>
+      <c r="B693" s="2">
+        <v>485000000</v>
+      </c>
+      <c r="C693" s="2">
+        <v>5</v>
+      </c>
+      <c r="D693" s="2">
+        <f t="shared" si="12"/>
+        <v>300000000</v>
+      </c>
+      <c r="E693" s="2">
+        <v>5</v>
+      </c>
+      <c r="F693" s="2">
+        <f t="shared" si="13"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A694" s="2">
+        <v>692</v>
+      </c>
+      <c r="B694" s="2">
+        <v>485800000</v>
+      </c>
+      <c r="C694" s="2">
+        <v>30</v>
+      </c>
+      <c r="D694" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E694" s="2">
+        <v>30</v>
+      </c>
+      <c r="F694" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A695" s="2">
+        <v>693</v>
+      </c>
+      <c r="B695" s="2">
+        <v>486600000</v>
+      </c>
+      <c r="C695" s="2">
+        <v>14</v>
+      </c>
+      <c r="D695" s="2">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E695" s="2">
+        <v>14</v>
+      </c>
+      <c r="F695" s="2">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A696" s="2">
+        <v>694</v>
+      </c>
+      <c r="B696" s="2">
+        <v>487400000</v>
+      </c>
+      <c r="C696" s="2">
+        <v>46</v>
+      </c>
+      <c r="D696" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E696" s="2">
+        <v>46</v>
+      </c>
+      <c r="F696" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A697" s="2">
+        <v>695</v>
+      </c>
+      <c r="B697" s="2">
+        <v>488200000</v>
+      </c>
+      <c r="C697" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D697" s="2">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="E697" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F697" s="2">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A698" s="2">
+        <v>696</v>
+      </c>
+      <c r="B698" s="2">
+        <v>489000000</v>
+      </c>
+      <c r="C698" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D698" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E698" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F698" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A699" s="2">
+        <v>697</v>
+      </c>
+      <c r="B699" s="2">
+        <v>489800000</v>
+      </c>
+      <c r="C699" s="2">
+        <v>5</v>
+      </c>
+      <c r="D699" s="2">
+        <f t="shared" si="12"/>
+        <v>300000000</v>
+      </c>
+      <c r="E699" s="2">
+        <v>5</v>
+      </c>
+      <c r="F699" s="2">
+        <f t="shared" si="13"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A700" s="2">
+        <v>698</v>
+      </c>
+      <c r="B700" s="2">
+        <v>490600000</v>
+      </c>
+      <c r="C700" s="2">
+        <v>30</v>
+      </c>
+      <c r="D700" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E700" s="2">
+        <v>30</v>
+      </c>
+      <c r="F700" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A701" s="2">
+        <v>699</v>
+      </c>
+      <c r="B701" s="2">
+        <v>491400000</v>
+      </c>
+      <c r="C701" s="2">
+        <v>14</v>
+      </c>
+      <c r="D701" s="2">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E701" s="2">
+        <v>14</v>
+      </c>
+      <c r="F701" s="2">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A702" s="2">
+        <v>700</v>
+      </c>
+      <c r="B702" s="2">
+        <v>492200000</v>
+      </c>
+      <c r="C702" s="2">
+        <v>46</v>
+      </c>
+      <c r="D702" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E702" s="2">
+        <v>46</v>
+      </c>
+      <c r="F702" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A703" s="2">
+        <v>701</v>
+      </c>
+      <c r="B703" s="2">
+        <v>493000000</v>
+      </c>
+      <c r="C703" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D703" s="2">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="E703" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F703" s="2">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A704" s="2">
+        <v>702</v>
+      </c>
+      <c r="B704" s="2">
+        <v>493800000</v>
+      </c>
+      <c r="C704" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D704" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E704" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F704" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A705" s="2">
+        <v>703</v>
+      </c>
+      <c r="B705" s="2">
+        <v>494600000</v>
+      </c>
+      <c r="C705" s="2">
+        <v>5</v>
+      </c>
+      <c r="D705" s="2">
+        <f t="shared" si="12"/>
+        <v>300000000</v>
+      </c>
+      <c r="E705" s="2">
+        <v>5</v>
+      </c>
+      <c r="F705" s="2">
+        <f t="shared" si="13"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A706" s="2">
+        <v>704</v>
+      </c>
+      <c r="B706" s="2">
+        <v>495400000</v>
+      </c>
+      <c r="C706" s="2">
+        <v>30</v>
+      </c>
+      <c r="D706" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E706" s="2">
+        <v>30</v>
+      </c>
+      <c r="F706" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A707" s="2">
+        <v>705</v>
+      </c>
+      <c r="B707" s="2">
+        <v>496200000</v>
+      </c>
+      <c r="C707" s="2">
+        <v>14</v>
+      </c>
+      <c r="D707" s="2">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E707" s="2">
+        <v>14</v>
+      </c>
+      <c r="F707" s="2">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A708" s="2">
+        <v>706</v>
+      </c>
+      <c r="B708" s="2">
+        <v>497000000</v>
+      </c>
+      <c r="C708" s="2">
+        <v>46</v>
+      </c>
+      <c r="D708" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E708" s="2">
+        <v>46</v>
+      </c>
+      <c r="F708" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A709" s="2">
+        <v>707</v>
+      </c>
+      <c r="B709" s="2">
+        <v>497800000</v>
+      </c>
+      <c r="C709" s="3">
+        <v>9010</v>
+      </c>
+      <c r="D709" s="2">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="E709" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F709" s="2">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A710" s="2">
+        <v>708</v>
+      </c>
+      <c r="B710" s="2">
+        <v>498600000</v>
+      </c>
+      <c r="C710" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D710" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E710" s="2">
+        <v>9016</v>
+      </c>
+      <c r="F710" s="2">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A711" s="2">
+        <v>709</v>
+      </c>
+      <c r="B711" s="2">
+        <v>499400000</v>
+      </c>
+      <c r="C711" s="2">
+        <v>5</v>
+      </c>
+      <c r="D711" s="2">
+        <f t="shared" si="12"/>
+        <v>300000000</v>
+      </c>
+      <c r="E711" s="2">
+        <v>5</v>
+      </c>
+      <c r="F711" s="2">
+        <f t="shared" si="13"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A712" s="2">
+        <v>710</v>
+      </c>
+      <c r="B712" s="2">
+        <v>500200000</v>
+      </c>
+      <c r="C712" s="2">
+        <v>30</v>
+      </c>
+      <c r="D712" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="E712" s="2">
+        <v>30</v>
+      </c>
+      <c r="F712" s="2">
+        <f t="shared" si="13"/>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -13603,8 +16311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A8F5D3-8578-4160-857F-0339F8D57840}">
   <dimension ref="B5:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13634,7 +16342,7 @@
       </c>
       <c r="D6" s="6">
         <f>SUMIF(SnowManAtten!C:C,C6,SnowManAtten!D:D)</f>
-        <v>29700000000</v>
+        <v>36000000000</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -13646,7 +16354,7 @@
       </c>
       <c r="D7" s="6">
         <f>SUMIF(SnowManAtten!C:C,C7,SnowManAtten!D:D)</f>
-        <v>1470000</v>
+        <v>1785000</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -13658,7 +16366,7 @@
       </c>
       <c r="D8" s="6">
         <f>SUMIF(SnowManAtten!C:C,C8,SnowManAtten!D:D)</f>
-        <v>19600</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -13670,7 +16378,7 @@
       </c>
       <c r="D9" s="6">
         <f>SUMIF(SnowManAtten!C:C,C9,SnowManAtten!D:D)</f>
-        <v>1470000</v>
+        <v>1770000</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -13682,7 +16390,7 @@
       </c>
       <c r="D10" s="6">
         <f>SUMIF(SnowManAtten!C:C,C10,SnowManAtten!D:D)</f>
-        <v>196000</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -13694,7 +16402,7 @@
       </c>
       <c r="D11" s="6">
         <f>SUMIF(SnowManAtten!C:C,C11,SnowManAtten!D:D)</f>
-        <v>9800</v>
+        <v>11800</v>
       </c>
     </row>
   </sheetData>
